--- a/P0094/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0094/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0094\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0094/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D18654-9218-4B2A-9FD9-795DC1F4D7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{A4D18654-9218-4B2A-9FD9-795DC1F4D7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD3E22A5-D61C-45E2-9775-6F284574BE94}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="79">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -122,13 +122,13 @@
     <t>pdf</t>
   </si>
   <si>
-    <t>El documento investiga la dinámica ecológica de los ecosistemas de humedales en La Mojana, enfocándose en la biodiversidad en zonas de transición entre macrohábitats naturales y agroecosistemas. Destaca una variabilidad significativa en la biodiversidad a lo largo de diferentes períodos hidrológicos, desde las estaciones más húmedas hasta las más secas, mostrando cómo diversos grupos biológicos se adaptan a estos cambios. Espacialmente, el estudio describe la biodiversidad asociada a los humedales, enfatizando la importancia de las zonas de transición para mantener el equilibrio ecológico. Las conclusiones sugieren que estos patrones de biodiversidad ofrecen conocimientos sobre los efectos de borde en los sistemas acuáticos, cruciales para las estrategias de conservación. El documento recomienda realizar más investigaciones para mejorar la comprensión de estos procesos ecológicos, apoyando la sostenibilidad de los servicios ecosistémicos y el bienestar de la comunidad local</t>
+    <t>El documento investiga la dinámica ecológica de los ecosistemas de humedales en La Mojana, enfocándose en la biodiversidad en zonas de transición entre macrohábitats naturales y agroecosistemas. Destaca una variabilidad significativa en la biodiversidad a lo largo de diferentes períodos hidrológicos, desde las estaciones más húmedas hasta las más secas, mostrando cómo diversos grupos biológicos se adaptan a estos cambios. Espacialmente, el estudio describe la biodiversidad asociada a los humedales, enfatizando la importancia de las zonas de transición para mantener el equilibrio ecológico. Las conclusiones sugieren que estos patrones de biodiversidad ofrecen conocimientos sobre los efectos de borde en los sistemas acuáticos, cruciales para las estrategias de conservación. El documento recomienda realizar más investigaciones para mejorar la comprensión de estos procesos ecológicos, apoyando la sostenibilidad de los servicios ecosistémicos y el bienestar de la comunidad local.</t>
   </si>
   <si>
     <t>Si</t>
   </si>
   <si>
-    <t>16-075Anexo- Zapal</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0094/02_PRODUCTOS/Convenio 16-075/Anexos/16-075Anexo- Zapal.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">El documento proporciona un examen detallado de los ecosistemas de humedales en La Mojana, enfocándose en la dinámica ecológica y la biodiversidad dentro de estas áreas. Está bien estructurado, dividiendo el contenido en secciones claras que cubren revisiones bibliográficas, dinámicas temporales, y dinámicas espaciales, lo que ayuda a comprender las complejas interacciones ecológicas. El documento se basa en una combinación de investigación bibliográfica y trabajo de campo, lo que potencia la robustez de los datos presentados. No obstante, existen brechas potenciales, particularmente en la cobertura temporal de datos, ya que el análisis indica un bajo avance en el conocimiento documentado sobre los ecosistemas desde 1995, con sólo un ligero incremento en los últimos años. el documento es muy relevante para la toma de decisiones, ya que destaca la importancia de entender la dinámica ecológica para la sustentabilidad de los servicios ecosistémicos, lo cual es crucial para el bienestar de la comunidad local </t>
@@ -155,7 +155,7 @@
     <t>Este documento corresponde al informe final rehabilitación modos de vida anfibios en La Mojana" presenta un análisis detallado de un proyecto de rehabilitación de humedales en la región de La Mojana, específicamente en la comunidad de Pasifueres, ubicada en el municipio de San Benito Abad, departamento de Sucre, Colombia. Fue elaborado en el marco del proyecto COL83662-68537 "Reducción de Riesgo y Vulnerabilidad al Cambio Climático en la Región de la Depresión Momposina de Colombia”, financiado por el Fondo de Adaptación del Protocolo de Kioto (AF -Adaptation Fund), e implementado para Colombia por el Ministerio de Ambiente y Desarrollo Sostenible (MADS) y el Programa de las Naciones Unidas para el Desarrollo (PNUD).</t>
   </si>
   <si>
-    <t>El objetivo del documento es diseñar e implementar estrategias de rehabilitación de modos de vida anfibios que mejoren las condiciones de vida de diez familias en relación con el uso y manejo de los ecosistemas de humedales de La Mojana. Se busca fortalecer la resiliencia de la comunidad ante los efectos del cambio climático y promover la sostenibilidad de los recursos naturales. En el informe se presenta una caracterización de la comunidad de Pasifueres, incluyendo sus principales actividades económicas, condiciones de vida y percepción de los ecosistemas locales. Se destaca la dependencia de las familias de los recursos hídricos y la vulnerabilidad ante fenómenos climáticos. La metodología utilizada incluyó una combinación de métodos cualitativos y cuantitativos. Se realizaron encuestas y entrevistas a las familias participantes para recopilar datos sobre sus condiciones de vida y percepciones. Además, se llevaron a cabo talleres participativos para fomentar la discusión y el diseño conjunto de las estrategias de rehabilitación. Se utilizó un enfoque de investigación-acción, permitiendo la adaptación continua de las intervenciones basadas en la retroalimentación de la comunidad._x000D_
+    <t>El objetivo del documento es diseñar e implementar estrategias de rehabilitación de modos de vida anfibios que mejoren las condiciones de vida de diez familias en relación con el uso y manejo de los ecosistemas de humedales de La Mojana. Se busca fortalecer la resiliencia de la comunidad ante los efectos del cambio climático y promover la sostenibilidad de los recursos naturales. En el informe se presenta una caracterización de la comunidad de Pasifueres, incluyendo sus principales actividades económicas, condiciones de vida y percepción de los ecosistemas locales. Se destaca la dependencia de las familias de los recursos hídricos y la vulnerabilidad ante fenómenos climáticos. La metodología utilizada incluyó una combinación de métodos cualitativos y cuantitativos. Se realizaron encuestas y entrevistas a las familias participantes para recopilar datos sobre sus condiciones de vida y percepciones. Además, se llevaron a cabo talleres participativos para fomentar la discusión y el diseño conjunto de las estrategias de rehabilitación. Se utilizó un enfoque de investigación-acción, permitiendo la adaptación continua de las intervenciones basadas en la retroalimentación de la comunidad.
 Entre los resultados más relevantes se encontró que la mayoría de las familias dependen de pozos artesanales y represas para el suministro de agua, aunque la calidad del agua no es potable. Un 95% de los participantes realiza sus excretas en campo abierto, lo que indica una necesidad urgente de mejorar las infraestructuras sanitarias. Se observó un aumento en la producción de alimentos a través de la implementación de "Patios productivos Anfibios", lo que permitió a las familias diversificar sus fuentes de sustento y mejorar su seguridad alimentaria. Adicionelmente, las estrategias implementadas promovieron la cohesión social y la cooperación entre las familias, fortaleciendo las relaciones personales y comunitarias. Las familias poseen un alto porcentaje de capital natural, evidenciado en su relación con los ecosistemas locales, como caños, ciénagas y zapales. Sin embargo, se identificó que estos ecosistemas estaban en un estado de alta alteración, lo que requería atención para recuperar sus servicios ecosistémicos. Finalmente, el estudio permitió identificar las necesidades específicas de las familias en relación con la provisión de alimentos y recursos, así como las oportunidades para mejorar sus condiciones de vida a través de la recuperación de la biodiversidad y agrobiodiversidad. Se concluye que es fundamental continuar con la implementación de estrategias que integren la participación comunitaria y la sostenibilidad ambiental. Además, se recomienda establecer políticas que vinculen las necesidades locales con decisiones a nivel macro, garantizando así la coherencia y efectividad de las intervenciones.</t>
   </si>
   <si>
@@ -165,7 +165,7 @@
     <t>El documento proporciona un marco integral para la rehabilitación de modos de vida anfibios, destacando la importancia de la participación comunitaria y la sostenibilidad en la gestión de recursos naturales, siendo un recurso valioso que documenta un esfuerzo significativo en la rehabilitación de modos de vida anfibios.  Adicionalmente, el informe contiene fotografías y registros visuales en los anexos enriquece el documento, permitiendo visualizar las actividades y resultados.  Por otra parte, el texto menciona resultados y actividades sin proporcionar suficiente contexto o detalles sobre cómo se lograron, dejando algunos vacíos sobre la implementación de las estrategias.</t>
   </si>
   <si>
-    <t>Sostenibilidad, Rehabilitación de humedales, Participación comunitaria, Calidad del agua, Humedal, Ecosistemas acuáticos, San Benito Abad, Modos de vida, Infraestructura sanitaria, Restauración, Actividades económicas, Servicios básicos, Servicios productivos.</t>
+    <t>Sostenibilidad, rehabilitación de humedales, participación comunitaria, calidad del agua, humedal, ecosistemas acuáticos, San Benito Abad, modos de vida, infraestructura sanitaria, restauración, actividades económicas, servicios básicos, servicios productivos.</t>
   </si>
   <si>
     <t>PR0003</t>
@@ -177,7 +177,7 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0094/02_PRODUCTOS/Convenio 16-075/Producto 4/Monitoreo Mojana.pdf</t>
   </si>
   <si>
-    <t>El documento presenta un informe detallado sobre el monitoreo y la rehabilitación de los humedales en la región de La Mojana, en el contexto del Contrato N° 16-075 entre el Programa de las Naciones Unidas para el Desarrollo (PNUD) y el Instituto de Investigación de Recursos Biológicos Alexander von Humboldt</t>
+    <t>El documento presenta un informe detallado sobre el monitoreo y la rehabilitación de los humedales en la región de La Mojana, en el contexto del Contrato N° 16-075 entre el Programa de las Naciones Unidas para el Desarrollo (PNUD) y el Instituto de Investigación de Recursos Biológicos Alexander von Humboldt.El objetivo del documento es implementar estrategias de rehabilitación de los humedales en la región de La Mojana, buscando recomponer el suministro de servicios ecosistémicos y aumentar el bienestar de sus habitantes. Este documento se estructuro de la siguiente manera: una  introducción, Parte 1, donde se desarollan los LMB a la rehabilitación de modos de vida anfibio de la Mojana, Parte 2, donde se desarrollan los LMB a la rehabilitación ecológica de humedales en La Mojana, por último biliografía</t>
   </si>
   <si>
     <t>El objetivo del documento es implementar estrategias de rehabilitación de los humedales en la región de La Mojana, buscando recomponer el suministro de servicios ecosistémicos y aumentar el bienestar de sus habitantes. Esto se logra a través de un enfoque de monitoreo que evalúa tanto el estado inicial de los ecosistemas como los modos de vida de las familias en áreas en proceso de rehabilitación. El documento también busca establecer una línea base para el monitoreo a largo plazo, con el fin de analizar las trayectorias de la rehabilitación y fomentar la participación activa de las comunidades en la conservación de sus recursos naturales. El estudio utilizó métodos de observación directa, encuestas a la comunidad y análisis de datos cuantitativos y cualitativos. Se aplicaron herramientas de georreferenciación (GPS) para la delimitación de áreas afectadas y se establecieron formatos de registro para la recolección de datos sobre especies pescadas y cazadas. Además, se promovió la capacitación de líderes comunitarios para facilitar el monitoreo y la gestión de recursos. Entre los hallazgos más relevantes se observó una limitada participación de la población en actividades de restauración de humedales, con solo una minoría involucrándose en los procesos, resaltando la necesidad de estrategias que fomenten una mayor inclusión y participación de las comunidades en la toma de decisiones. Las capacitaciones realizadas por actores regionales mostraron una percepción positiva entre los participantes, aunque se identificaron barreras que limitan la asistencia y el compromiso de la comunidad. Se recomienda un monitoreo continuo de estas capacitaciones para mejorar su alcance y efectividad. Por otra parte, las prácticas de cacería y pesca, que son fundamentales para la subsistencia de las comunidades, han disminuido debido a la reducción de especies, lo que indica la necesidad de implementar medidas de conservación y manejo sostenible de los recursos. Por último, se estableció un protocolo para la identificación y verificación de áreas afectadas por eventos de quema, lo que permitirá una respuesta más efectiva ante estos incidentes y contribuirá a la restauración de los ecosistemas. El informe concluye que la rehabilitación de los humedales en La Mojana es esencial para mejorar las condiciones de vida de sus habitantes y restaurar los servicios ecosistémicos. Sin embargo, es crucial fortalecer la participación comunitaria y la educación ambiental para asegurar el éxito de las iniciativas de restauración. Se enfatiza la importancia de un enfoque colaborativo que involucre a todos los actores relevantes en el proceso.</t>
@@ -186,7 +186,7 @@
     <t>El documento es un recurso valioso que proporciona información relevante y bien estructurada sobre la rehabilitación de humedales en La Mojana. Presenta una estructura clara y bien organizada, lo que facilita la comprensión de los temas tratados. La información proporcionada es altamente relevante para la toma de decisiones en el ámbito de la conservación y rehabilitación de humedales. Los hallazgos sobre el estado de los ecosistemas y las prácticas de manejo de las comunidades locales son cruciales para diseñar políticas efectivas y estrategias de intervención. No obstante, pese a la riqueza del contenido, se observan algunos vacíos de información, especialmente en la discusión de los resultados. Por ejemplo, sería útil incluir un análisis más detallado de cómo las prácticas de manejo de recursos afectan la salud de los ecosistemas y la calidad de vida de las comunidades.  Se identifican algunos errores de estructura y formatos en las figuras y bibliografía.</t>
   </si>
   <si>
-    <t>Monitoreo ambiental, Humedales, Rehabilitación, Conservación, La Mojana, Sostenibilidad, Servicios ecosistémicos, Capacitación, Participación comunitaria, Cambio climático, Suelo, Agua, Fauna, Flora, Peces, Aves, Mamíferos, Cobertura, Invertebrados.</t>
+    <t>Monitoreo ambiental, humedales, rehabilitación, conservación, La Mojana, sostenibilidad, servicios ecosistémicos, capacitación, participación comunitaria, cambio climático, suelo, agua, fauna, flora, peces, aves, mamíferos, cobertura, invertebrados.</t>
   </si>
   <si>
     <t>PR0004</t>
@@ -201,23 +201,21 @@
     <t>El documento corresponde a un "informe de actividades de divulgación y apropiación comunitaria", presentando un análisis exhaustivo de las estrategias implementadas en el marco del proyecto de rehabilitación de humedales en la región de La Mojana, Colombia.  Desarrollado en el marco del contrato No. 16-075 para Implementar estrategias de rehabilitación de humedales de la región de La Mojana, buscando recomponer el suministro de servicios ecosistémicos, aumentando el bienestar de sus habitantes, a través de la adaptación a las dinámicas naturales de una planicie de inundación.</t>
   </si>
   <si>
-    <t xml:space="preserve">El objetivo del documento es evaluar las actividades de divulgación y apropiación comunitaria llevadas a cabo para fomentar la participación activa de las comunidades en la gestión y rehabilitación de los humedales. Se busca sensibilizar a los habitantes sobre la importancia de los servicios ecosistémicos y promover prácticas sostenibles que contribuyan a la adaptación al cambio climático. El desarrollo de los temas en el documento se basa en una combinación de metodologías cualitativas y cuantitativas. Se llevaron a cabo:_x000D_
-Talleres de Capacitación: Se realizaron sesiones interactivas para capacitar a los jóvenes en el uso de dispositivos móviles y en la creación de contenidos, lo que permitió la recolección de datos sobre la efectividad de estas actividades._x000D_
-Trabajo de Campo: Se realizaron visitas a diferentes lugares de la vereda Pasifueres para entrevistar a miembros de la comunidad, lo que facilitó la identificación de sus modos de vida y su relación con los humedales._x000D_
-Análisis de Resultados: Se evaluaron los contenidos generados y la participación comunitaria, utilizando indicadores para medir el impacto de las acciones de divulgación._x000D_
-Entre los losresultados más relevantes se bservó una mayor participación de las comunidades de La Mojana en las actividades de rehabilitación y conservación de los humedales, indicando un compromiso creciente hacia la gestión sostenible de sus recursos naturales. Se generaron diversos contenidos comunicativos, incluyendo videos y materiales informativos, que reflejan los modos de vida de las comunidades y la importancia de los humedales, facilitando la difusión de información relevante. Se identificaron comportamientos y actitudes que obstaculizan la participación activa de la comunidad, lo que permitirá diseñar estrategias más efectivas en el futuro.  se fortalecieron las habilidades de comunicación y liderazgo de los jóvenes, empoderándolos para que se conviertan en agentes de cambio en sus comunidades,  a través de talleres. Finalmente, se realizó una evaluación de las estrategias de apropiación y divulgación, lo que permitió ajustar y mejorar las metodologías utilizadas para futuras intervenciones. El informe concluye que la participación activa de la comunidad es fundamental para el éxito de las estrategias de rehabilitación de los humedales. La capacitación y el empoderamiento de los jóvenes y líderes comunitarios son esenciales para fomentar la sostenibilidad de los proyectos. Además, se destaca la importancia de establecer indicadores para evaluar el impacto de las acciones de divulgación y apropiación._x000D_
+    <t xml:space="preserve">El objetivo del documento es evaluar las actividades de divulgación y apropiación comunitaria llevadas a cabo para fomentar la participación activa de las comunidades en la gestión y rehabilitación de los humedales. Se busca sensibilizar a los habitantes sobre la importancia de los servicios ecosistémicos y promover prácticas sostenibles que contribuyan a la adaptación al cambio climático. El desarrollo de los temas en el documento se basa en una combinación de metodologías cualitativas y cuantitativas. Se llevaron a cabo:
+Talleres de Capacitación: Se realizaron sesiones interactivas para capacitar a los jóvenes en el uso de dispositivos móviles y en la creación de contenidos, lo que permitió la recolección de datos sobre la efectividad de estas actividades.
+Trabajo de Campo: Se realizaron visitas a diferentes lugares de la vereda Pasifueres para entrevistar a miembros de la comunidad, lo que facilitó la identificación de sus modos de vida y su relación con los humedales.
+Análisis de Resultados: Se evaluaron los contenidos generados y la participación comunitaria, utilizando indicadores para medir el impacto de las acciones de divulgación.
+Entre los resultados más relevantes se bservó una mayor participación de las comunidades de La Mojana en las actividades de rehabilitación y conservación de los humedales, indicando un compromiso creciente hacia la gestión sostenible de sus recursos naturales. Se generaron diversos contenidos comunicativos, incluyendo videos y materiales informativos, que reflejan los modos de vida de las comunidades y la importancia de los humedales, facilitando la difusión de información relevante. Se identificaron comportamientos y actitudes que obstaculizan la participación activa de la comunidad, lo que permitirá diseñar estrategias más efectivas en el futuro.  se fortalecieron las habilidades de comunicación y liderazgo de los jóvenes, empoderándolos para que se conviertan en agentes de cambio en sus comunidades,  a través de talleres. Finalmente, se realizó una evaluación de las estrategias de apropiación y divulgación, lo que permitió ajustar y mejorar las metodologías utilizadas para futuras intervenciones. El informe concluye que la participación activa de la comunidad es fundamental para el éxito de las estrategias de rehabilitación de los humedales. La capacitación y el empoderamiento de los jóvenes y líderes comunitarios son esenciales para fomentar la sostenibilidad de los proyectos. Además, se destaca la importancia de establecer indicadores para evaluar el impacto de las acciones de divulgación y apropiación.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ANEXO A. INFORME FINAL DE LA CARACTERIZACION DE SERVICIOS ECOSISTÉMICOS EN  TRES MUNICIPIOS DE LA MOJANA_x000D_
-ANEXO B. INFORME SOBRE DIAGNÓSTICO DE MODOS Y MEDIOS DE COMUNICACIÓN REALIZADO EN 11  POBLADOS PERTENECIENTES A LOS MUNICIPIOS DE SAN BENITO ABAD, SAN MARCOS EN SUCRE;  Y AYAPEL EN CÓRDOBA._x000D_
-ANEXO C. GLOSARIO TOMADO DE INSUMOS Y TAREAS DE CARACTERIZACIÓN DE SERVICIOS  ECOSISTÉMICOS CON COMUNIDADES Y PERSONAS CLAVES </t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0094/02_PRODUCTOS/Convenio 16-075/Producto 5/Anexos del producto 5</t>
   </si>
   <si>
     <t>El documento presenta una estructura bien organizada, lo que facilita la comprensión de los objetivos, actividades y resultados del proyecto. Por otra parte,  el documento es relevante para la toma de decisiones en el ámbito de la gestión ambiental y la rehabilitación de ecosistemas, ya que proporciona información valiosa sobre la percepción comunitaria y la efectividad de las estrategias de divulgación. Los hallazgos pueden guiar a los responsables de políticas y a las organizaciones involucradas en la conservación a diseñar intervenciones más efectivas y adaptadas a las necesidades de las comunidades locales. Además, la identificación de comportamientos que obstaculizan la participación puede ayudar a enfocar esfuerzos en la creación de un entorno más inclusivo y participativo. Finalmente, algunas secciones del documento parecen inconclusas o carecen de información detallada sobre la evaluación de las estrategias implementadas.</t>
   </si>
   <si>
-    <t>Liderazgo comunitario, Participación comunitaria, Sostenibilidad, Rehabilitación de humedales, Apropiación comunitaria, Servicios ecosistémicos, Divulgación, Socialización.</t>
+    <t>Liderazgo comunitario, participación comunitaria, sostenibilidad, rehabilitación de humedales, apropiación comunitaria, servicios ecosistémicos, divulgación, socialización.</t>
   </si>
   <si>
     <t>PR0005</t>
@@ -229,87 +227,66 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0094/02_PRODUCTOS/Convenio 16-075/Producto 7/Monitoreo Comunitario.pdf</t>
   </si>
   <si>
-    <t>El documento "Propuesta de monitoreo comunitario a la restauración" aborda la implementación de estrategias de monitoreo participativo en la rehabilitación de humedales, con un enfoque en la participación activa de las comunidades locales.  Este documento fue desarrollado en el marco del proyecto  "Reducción de Riesgo y Vulnerabilidad_x000D_
-al Cambio Climático en la Región de la Depresión Momposina de Colombia,  financiado por el Fondo de Adaptación del Protocolo de Kioto (AF -Adaptation Fund), e implementado para Colombia por el Ministerio de Ambiente y Desarrollo Sostenible (MADS) y el Programa de las Naciones Unidas para el Desarrollo (PNUD)</t>
-  </si>
-  <si>
-    <t>El objetivo principal del documento es establecer un marco metodológico que permita a las comunidades involucrarse en la recolección y análisis de datos relacionados con la rehabilitación de los humedales, promoviendo así la sostenibilidad y el bienestar de los ecosistemas y sus habitantes.  El documento se basa en una revisión de literatura especializada y en las lecciones aprendidas de proyectos previos de monitoreo participativo. Se utilizan métodos cualitativos y cuantitativos para la recolección de datos, y se sugiere el uso de software de gestión de datos para facilitar el análisis y la sistematización de la información. Además, se promueve el uso de herramientas digitales para la recolección de datos, lo que permite una mayor eficiencia y precisión en el proceso. Entre los resultados más relevante se obtuvo que la información obtenida de la línea base de servicios ecosistémicos fue fundamental para definir y diseñar propuestas de monitoreo participativo en la comunidad de Pasifueres, en el municipio de San Benito Abad, permitiendo establecer un diálogo entre las comunidades sobre la rehabilitación de los humedales y la recuperación de los servicios ecosistémicos. e logró un nivel significativo de participación de las comunidades en el proceso de monitoreo, especialmente en el enfoque contributivo, donde las familias proporcionaron datos a través de encuestas y registros. Se implementó un sistema de documentación y sistematización de datos que permitió compartir los resultados con los tomadores de decisiones a través de informes técnicos. e identificaron actores locales y externos relevantes para el monitoreo comunitario, lo que facilitó la comprensión de las relaciones y acciones en torno a los humedales. Los resultados del monitoreo contributivo proporcionaron insumos valiosos que pueden ser utilizados para diseñar etapas posteriores del proyecto, enfocándose en un monitoreo participativo de tipo colaborativo o co-creado, que permita una mayor implicación de las comunidades en la toma de decisiones. Finalmente, a manera de conclusión se tiene que el monitoreo comunitario es fundamental para la rehabilitación efectiva de los humedales, ya que permite a las comunidades involucrarse activamente en la gestión de sus recursos naturales. La implementación de un enfoque participativo no solo mejora la calidad de los datos, sino que también fortalece la capacidad de las comunidades para influir en las decisiones que afectan su entorno.</t>
+    <t xml:space="preserve">El documento "Propuesta de monitoreo comunitario a la restauración" aborda la implementación de estrategias de monitoreo participativo en la rehabilitación de humedales, con un enfoque en la participación activa de las comunidades locales.  Este documento fue desarrollado en el marco del proyecto  "Reducción de Riesgo y Vulnerabilidad
+al Cambio Climático en la Región de la Depresión Momposina de Colombia,  financiado por el Fondo de Adaptación del Protocolo de Kioto (AF -Adaptation Fund), e implementado para Colombia por el Ministerio de Ambiente y Desarrollo Sostenible (MADS) y el Programa de las Naciones Unidas para el Desarrollo (PNUD).  El objetivo principal del documento es establecer un marco metodológico que permita a las comunidades involucrarse en la recolección y análisis de datos relacionados con la rehabilitación de los humedales, promoviendo así la sostenibilidad y el bienestar de los ecosistemas y sus habitantes. El documento se divide en dos partes, la primera,  presenta la base teórica necesaria para entender que es un monitoreo participativo y  los pasos necesarios para su diseño e implementación, en la segunda, se expone a manera de ejemplo el comó se aplica cada uno de los pasos del monitoreo participativo tomando como ejemplo la comunidad Pasifueres en San Benito Abad, Sucre </t>
+  </si>
+  <si>
+    <t>El objetivo principal del documento es establecer un marco metodológico que permita a las comunidades involucrarse en la recolección y análisis de datos relacionados con la rehabilitación de los humedales, promoviendo así la sostenibilidad y el bienestar de los ecosistemas y sus habitantes.  El documento se basa en una revisión de literatura especializada y en las lecciones aprendidas de proyectos previos de monitoreo participativo. Se utilizan métodos cualitativos y cuantitativos para la recolección de datos, y se sugiere el uso de software de gestión de datos para facilitar el análisis y la sistematización de la información. Además, se promueve el uso de herramientas digitales para la recolección de datos, lo que permite una mayor eficiencia y precisión en el proceso. Entre los resultados más relevante se obtuvo que la información obtenida de la línea base de servicios ecosistémicos fue fundamental para definir y diseñar propuestas de monitoreo participativo en la comunidad de Pasifueres, en el municipio de San Benito Abad, permitiendo establecer un diálogo entre las comunidades sobre la rehabilitación de los humedales y la recuperación de los servicios ecosistémicos. Se logró un nivel significativo de participación de las comunidades en el proceso de monitoreo, especialmente en el enfoque contributivo, donde las familias proporcionaron datos a través de encuestas y registros. Se implementó un sistema de documentación y sistematización de datos que permitió compartir los resultados con los tomadores de decisiones a través de informes técnicos e identificaron actores locales y externos relevantes para el monitoreo comunitario, lo que facilitó la comprensión de las relaciones y acciones en torno a los humedales. Los resultados del monitoreo contributivo proporcionaron insumos valiosos que pueden ser utilizados para diseñar etapas posteriores del proyecto, enfocándose en un monitoreo participativo de tipo colaborativo o co-creado, que permita una mayor implicación de las comunidades en la toma de decisiones. Finalmente, a manera de conclusión se tiene que el monitoreo comunitario es fundamental para la rehabilitación efectiva de los humedales, ya que permite a las comunidades involucrarse activamente en la gestión de sus recursos naturales. La implementación de un enfoque participativo no solo mejora la calidad de los datos, sino que también fortalece la capacidad de las comunidades para influir en las decisiones que afectan su entorno.</t>
   </si>
   <si>
     <t>El documento es altamente relevante para la toma de decisiones en la gestión de recursos naturales y la rehabilitación de humedales. Proporciona un marco claro para la participación comunitaria y la recolección de datos, lo que puede informar políticas públicas y estrategias de conservación. No obstante, aunque se menciona la recopilación de datos y la documentación, se observa una falta de socialización de resultados con la comunidad en esta fase del proyecto. Esto puede generar desconfianza y desinterés en futuras participaciones, ya que la comunidad podría sentir que su contribución no es valorada.</t>
   </si>
   <si>
-    <t>Monitoreo comunitario, Rehabilitación de humedales, Participación comunitaria, Capacitación, Evaluación participativa, Herramientas digitales, Confianza comunitaria, Monitoreo participativo.</t>
+    <t>Monitoreo comunitario, rehabilitación de humedales, participación comunitaria, capacitación, evaluación participativa, herramientas digitales, confianza comunitaria, monitoreo participativo.</t>
   </si>
   <si>
     <t>PR0006</t>
   </si>
   <si>
-    <t>Anexo A.pdf</t>
-  </si>
-  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0094/02_PRODUCTOS/Convenio 16-075/Producto 5/Anexos del producto 5/Anexo A.pdf</t>
   </si>
   <si>
     <t>El documento “Informe Final de la Caracterización de Servicios Ecosistémicos en Tres Municipios de La Mojana”, corresponde al producto No. 2 entregado en el quinto desembolso del contrato No. 16-075. El texto es un informe técnico que presenta los resultados de un estudio realizado en los municipios de Ayapel, San Benito de Abad y San Marcos, con el objetivo de identificar y valorar los servicios ecosistémicos proporcionados por los humedales de la zona, así como proponer estrategias para su rehabilitación y gestión sostenible, contribuyendo al bienestar de las comunidades locales</t>
   </si>
   <si>
-    <t>El informe presenta un análisis de los servicios ecosistémicos en los municipios de Ayapel, San Benito Abad y San Marcos. A través de un enfoque participativo, se identificaron y valoraron los servicios que los humedales proporcionan a las comunidades locales, destacando su importancia para la sostenibilidad ambiental y el bienestar social. Algunos servicios ecosistémicos identificados fueron la provisión de agua y alimentos, la regulación del clima y el soporte a la biodiversidad. Por otro lado, también se estableció que las comunidades tienen un alto nivel de conocimiento sobre los servicios que ofrecen los humedales, por lo que también expresaron su preocupación sobre su degradación y la perdida de biodiversidad. En adicción el documento también contiene un análisis de la variación espacial y temporal de la fauna y flora de los tres municipios ya mencionados. Por último, se identificó una red de actores clave en la gestión de los humedales, donde la participación comunitaria es fundamental para la toma de decisiones y la implementación de estrategias de conservación.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anexo 1. Propuesta Metodológica para la Caracterización de Servicios Ecosistémicos_x000D_
-Anexo 2. Caracterización de Red de Actores Involucrados en la Gestión y Uso de los Humedales de La Mojana_x000D_
-Anexo 3. Escuela de Campo Universidad del Rosario: Aporte Etnográfico al Entendimiento de los Servicios Ecosistémicos_x000D_
-</t>
+    <t>El informe presenta un análisis de los servicios ecosistémicos en los municipios de Ayapel, San Benito Abad y San Marcos. A través de un enfoque participativo, se identificaron y valoraron los servicios que los humedales proporcionan a las comunidades locales, destacando su importancia para la sostenibilidad ambiental y el bienestar social. Algunos servicios ecosistémicos identificados fueron la provisión de agua y alimentos, la regulación del clima y el soporte a la biodiversidad. Por otro lado, también se estableció que las comunidades tienen un alto nivel de conocimiento sobre los servicios que ofrecen los humedales, por lo que también expresaron su preocupación sobre su degradación y la perdida de biodiversidad. En adicción el documento también contiene un análisis de la variación espacial y temporal de la fauna y flora de los tres municipios ya mencionados. Por último, se identificó una red de actores clave en la gestión de los humedales, donde la participación comunitaria es fundamental para la toma de decisiones y la implementación de estrategias de conservación. El documento contiene anexos inmersos en el mismo.</t>
   </si>
   <si>
     <t>El documento es un recurso valioso que proporciona información crítica sobre los servicios ecosistémicos en La Mojana. Por otro lado, el documento relaciona documentos anexos que no se encuentran incluidos en la información del proyecto</t>
   </si>
   <si>
-    <t>Servicios ecosistémicos, Humedales, Ayapel, San Benito Abad, San Marcos, Biodiversidad, Gobernanza, Participación comunitaria, Sostenibilidad, Conocimiento local, Fauna, Flora, Identificación de actores, Percepción comunitaria</t>
+    <t>Servicios ecosistémicos, humedales, Ayapel, San Benito Abad, San Marcos, biodiversidad, gobernanza, participación comunitaria, sostenibilidad, conocimiento local, fauna, flora, identificación de actores, percepción comunitaria</t>
   </si>
   <si>
     <t>PR0007</t>
   </si>
   <si>
-    <t>Anexo B.pdf</t>
-  </si>
-  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0094/02_PRODUCTOS/Convenio 16-075/Producto 5/Anexos del producto 5/Anexo B.pdf</t>
   </si>
   <si>
-    <t>El documento corresponde al anexo “Informe sobre diagnóstico de modos y medios de comunicación realizado en 11 poblados pertenecientes a los municipios de san Benito de Abad, San Marcos en Sucre; y Ayapel en Córdoba”. El informe detalla cómo se llevó a cabo un estudio para entender la estructura, filosofía y actividades de los medios de comunicación en estas comunidades, así como su impacto cultural y social. Este estudio fue realizado en el marco del convenio 17-16-075-027ce entre el Instituto Humboldt y la Universidad de Córdoba</t>
-  </si>
-  <si>
-    <t>El documento presenta un diagnóstico detallado sobre los modos y medios de comunicación en once veredas de los municipios de San Benito Abad, San Marcos (Sucre) y Ayapel (Córdoba). A través de encuestas y grupos focales, se identificaron las características, accesibilidad y efectividad de los medios de comunicación en estas comunidades, así como su impacto en la cultura local y la educación. Los resultados clave del diagnóstico revelan que la difícil geografía limita la llegada de medios impresos, restringiendo el acceso a información actualizada, mientras que las comunidades muestran una preferencia por medios locales, especialmente la radio, por su relevancia y accesibilidad. Además, se destaca un alto nivel de participación comunitaria en la producción de contenidos, reflejando un interés en temas locales y ambientales, y los medios son esenciales para preservar y difundir la cultura local, reflejando el lenguaje y símbolos comunitarios. También desempeñan un papel crucial en la educación ambiental y la adaptación al cambio climático, fomentando la reflexión y decisiones informadas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1 INFORME TALLER DE COCREACIÓN_x000D_
-A2_Diagnostico de Medios y Modos COMUNIDADES_x000D_
-A3_Diagnostico de Medios y Modos MUNICIPIOS_x000D_
-A4_Encuestas COMUNIDADES_x000D_
-A5_Entrevistas Ayapel_x000D_
-A6_Entrevistas San Benito_x000D_
-A7_Entrevistas San Marcos_x000D_
-A8_Grupo focal Cecilia_x000D_
-A9_Grupo focal Chinchorro_x000D_
-A10_Grupo focal Cuenca_x000D_
-A11_Grupo focal El Pital_x000D_
-A12_Grupo focal Seheve_x000D_
-</t>
+    <t>El documento corresponde al anexo “Informe sobre diagnóstico de modos y medios de comunicación realizado en 11 poblados pertenecientes a los municipios de san Benito de Abad, San Marcos en Sucre; y Ayapel en Córdoba”. El informe detalla cómo se llevó a cabo un estudio para entender la estructura, filosofía y actividades de los medios de comunicación en estas comunidades, así como su impacto cultural y social. Este estudio fue realizado en el marco del convenio 17-16-075-027 entre el Instituto Humboldt y la Universidad de Córdoba</t>
+  </si>
+  <si>
+    <t>El documento presenta un diagnóstico detallado sobre los modos y medios de comunicación en once veredas de los municipios de San Benito Abad, San Marcos (Sucre) y Ayapel (Córdoba). A través de encuestas y grupos focales, se identificaron las características, accesibilidad y efectividad de los medios de comunicación en estas comunidades, así como su impacto en la cultura local y la educación. Los resultados clave del diagnóstico revelan que la difícil geografía limita la llegada de medios impresos, restringiendo el acceso a información actualizada, mientras que las comunidades muestran una preferencia por medios locales, especialmente la radio, por su relevancia y accesibilidad. Además, se destaca un alto nivel de participación comunitaria en la producción de contenidos, reflejando un interés en temas locales y ambientales, y los medios son esenciales para preservar y difundir la cultura local, reflejando el lenguaje y símbolos comunitarios. También desempeñan un papel crucial en la educación ambiental y la adaptación al cambio climático, fomentando la reflexión y decisiones informadas. El documento contiene anexos inmersos en el mismo</t>
   </si>
   <si>
     <t>La discusión sobre el impacto cultural de los medios y su papel en la educación ambiental es un punto fuerte del documento.  Los hallazgos sobre la accesibilidad limitada a medios impresos y la preferencia por medios locales son altamente relevantes, especialmente en el contexto de la comunicación comunitaria y la educación ambiental. Estos aspectos son cruciales para la toma de decisiones en la implementación de estrategias de comunicación efectivas. Por otro lado, el documento relaciona documentos anexos que no se encuentran incluidos en la información del proyecto</t>
   </si>
   <si>
-    <t>Comunicación comunitaria, Medios locales, Accesibilidad, Participación, Cultura local, Educación ambiental, Producción de contenidos, Radio, Diagnóstico, Estrategias de comunicación, Capacitación mediática, Ayapel, San Benito Abad, San Marcos, Participación comunitaria, Conocimiento local</t>
+    <t>Comunicación comunitaria, medios locales, accesibilidad, participación, cultura local, educación ambiental, producción de contenidos, radio, diagnóstico, estrategias de comunicación, capacitación mediática, Ayapel, San Benito Abad, San Marcos, participación comunitaria, conocimiento local</t>
+  </si>
+  <si>
+    <t>Anexo A</t>
+  </si>
+  <si>
+    <t>Anexo B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,6 +307,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -407,15 +397,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -431,7 +426,9 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -440,6 +437,10 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <u val="none"/>
+        <color rgb="FF000000"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -448,7 +449,9 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -476,6 +479,10 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <u val="none"/>
+        <color rgb="FF000000"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -579,9 +586,7 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <top/>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -598,9 +603,7 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <top/>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -677,8 +680,12 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -796,16 +803,16 @@
     <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="AUTOR 1" dataDxfId="12"/>
     <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="AUTOR 2" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{6636B1CE-48D4-474F-9E69-B0147F98E56A}" name="AUTOR 3" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="AUTOR 4" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="AUTOR 5" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="DESCRIPCION" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="5" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="3" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="AUTOR 4" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="AUTOR 5" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="DESCRIPCION" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="3" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="1" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1074,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,13 +1203,13 @@
       <c r="N2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>29</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="5" t="s">
         <v>31</v>
       </c>
       <c r="R2" s="3" t="s">
@@ -1219,7 +1226,7 @@
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="9" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="2">
@@ -1252,13 +1259,13 @@
       <c r="N3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="6" t="s">
         <v>40</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="6" t="s">
         <v>41</v>
       </c>
       <c r="R3" s="2" t="s">
@@ -1275,7 +1282,7 @@
       <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="2">
@@ -1308,13 +1315,13 @@
       <c r="N4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="6" t="s">
         <v>40</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="6" t="s">
         <v>48</v>
       </c>
       <c r="R4" s="2" t="s">
@@ -1364,7 +1371,7 @@
       <c r="N5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P5" s="2" t="s">
@@ -1373,7 +1380,7 @@
       <c r="Q5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1420,13 +1427,13 @@
       <c r="N6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="6" t="s">
         <v>40</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="6" t="s">
         <v>63</v>
       </c>
       <c r="R6" s="2" t="s">
@@ -1441,10 +1448,10 @@
         <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="E7" s="2">
         <v>2017</v>
@@ -1465,7 +1472,7 @@
         <v>24</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>26</v>
@@ -1474,19 +1481,19 @@
         <v>27</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1494,13 +1501,13 @@
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2">
         <v>9999</v>
@@ -1520,30 +1527,34 @@
       <c r="J8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>80</v>
-      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I13" s="8"/>
+      <c r="Q13" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
